--- a/distribution/lib/Standard/Examples/0.1.0/data/spreadsheet.xlsx
+++ b/distribution/lib/Standard/Examples/0.1.0/data/spreadsheet.xlsx
@@ -3,9 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Strange Dimensions" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Simple" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Simple" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Strange Dimensions" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Dates" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Empty" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Duplicate Columns" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +15,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>blouse</t>
+  </si>
+  <si>
+    <t>t-shirt</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>skirt</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
   <si>
     <t>baz</t>
   </si>
@@ -24,33 +53,6 @@
     <t>foo</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>blouse</t>
-  </si>
-  <si>
-    <t>t-shirt</t>
-  </si>
-  <si>
-    <t>trousers</t>
-  </si>
-  <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>skirt</t>
-  </si>
-  <si>
-    <t>dress</t>
-  </si>
-  <si>
     <t>Student Name</t>
   </si>
   <si>
@@ -73,6 +75,9 @@
   </si>
   <si>
     <t>Hermann Minkowski</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
 </sst>
 </file>
@@ -83,7 +88,7 @@
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -93,7 +98,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,15 +120,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -142,6 +144,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -349,32 +359,72 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22.3</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="1">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C3" s="1">
-        <v>20.0</v>
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43.2</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="1" t="s">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>54.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="2" t="s">
-        <v>2</v>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>31.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="1">
-        <v>30.0</v>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -392,72 +442,32 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="1">
         <v>10.0</v>
       </c>
-      <c r="C2" s="1">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>20.0</v>
       </c>
-      <c r="C3" s="1">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43.2</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="1">
         <v>30.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +489,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -490,7 +500,7 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>41001.0</v>
       </c>
     </row>
@@ -498,7 +508,7 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>41178.0</v>
       </c>
     </row>
@@ -506,7 +516,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>43894.0</v>
       </c>
     </row>
@@ -514,7 +524,7 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>34692.0</v>
       </c>
     </row>
@@ -522,16 +532,149 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>43131.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>11116.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D7" si="1"> B2*2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
